--- a/Java/Graficos/Graficas rep/Practicas.xlsx
+++ b/Java/Graficos/Graficas rep/Practicas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danvc\Documents\SchoolDocs\Septimo\Graficas rep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danvc\Code-Cluster\Java\Graficos\Graficas rep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E1C14B-BEDB-4E50-A012-4832A18238DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CEFB97-321B-4671-9C5A-3162E3505111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3A2DCF11-3802-4578-A737-375F757D0077}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A2DCF11-3802-4578-A737-375F757D0077}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="54">
   <si>
     <t>Practica</t>
   </si>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3506F5F8-495D-4CB0-B1D5-67BFABF7FF4F}">
   <dimension ref="B2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,6 +773,9 @@
       <c r="C19" t="s">
         <v>39</v>
       </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
       <c r="E19" t="s">
         <v>50</v>
       </c>
@@ -784,6 +787,9 @@
       <c r="C20" t="s">
         <v>39</v>
       </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
       <c r="E20" t="s">
         <v>50</v>
       </c>
@@ -795,6 +801,9 @@
       <c r="C21" t="s">
         <v>39</v>
       </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
       <c r="E21" t="s">
         <v>50</v>
       </c>
@@ -806,6 +815,9 @@
       <c r="C22" t="s">
         <v>39</v>
       </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
       <c r="E22" t="s">
         <v>50</v>
       </c>
@@ -817,6 +829,9 @@
       <c r="C23" t="s">
         <v>39</v>
       </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
       <c r="E23" t="s">
         <v>50</v>
       </c>
@@ -828,6 +843,9 @@
       <c r="C24" t="s">
         <v>39</v>
       </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
       <c r="E24" t="s">
         <v>50</v>
       </c>
@@ -839,6 +857,9 @@
       <c r="C25" t="s">
         <v>39</v>
       </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
       <c r="E25" t="s">
         <v>50</v>
       </c>
@@ -850,6 +871,9 @@
       <c r="C26" t="s">
         <v>39</v>
       </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
       <c r="E26" t="s">
         <v>50</v>
       </c>
@@ -861,6 +885,9 @@
       <c r="C27" t="s">
         <v>39</v>
       </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
       <c r="E27" t="s">
         <v>50</v>
       </c>
@@ -872,6 +899,9 @@
       <c r="C28" t="s">
         <v>39</v>
       </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
       <c r="E28" t="s">
         <v>50</v>
       </c>
@@ -883,6 +913,9 @@
       <c r="C29" t="s">
         <v>39</v>
       </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
       <c r="E29" t="s">
         <v>50</v>
       </c>
@@ -894,6 +927,9 @@
       <c r="C30" t="s">
         <v>39</v>
       </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
       <c r="E30" t="s">
         <v>50</v>
       </c>
@@ -905,6 +941,9 @@
       <c r="C31" t="s">
         <v>39</v>
       </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
       <c r="E31" t="s">
         <v>50</v>
       </c>
@@ -916,6 +955,9 @@
       <c r="C32" t="s">
         <v>39</v>
       </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
       <c r="E32" t="s">
         <v>50</v>
       </c>
@@ -927,6 +969,9 @@
       <c r="C33" t="s">
         <v>39</v>
       </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
       <c r="E33" t="s">
         <v>50</v>
       </c>
@@ -938,6 +983,9 @@
       <c r="C34" t="s">
         <v>39</v>
       </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
       <c r="E34" t="s">
         <v>50</v>
       </c>
@@ -949,6 +997,9 @@
       <c r="C35" t="s">
         <v>39</v>
       </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
       <c r="E35" t="s">
         <v>50</v>
       </c>
@@ -959,6 +1010,9 @@
       </c>
       <c r="C36" t="s">
         <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
       </c>
       <c r="E36" t="s">
         <v>50</v>

--- a/Java/Graficos/Graficas rep/Practicas.xlsx
+++ b/Java/Graficos/Graficas rep/Practicas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danvc\Code-Cluster\Java\Graficos\Graficas rep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CEFB97-321B-4671-9C5A-3162E3505111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EE93E7-99A8-4986-A224-8104FBF4A486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A2DCF11-3802-4578-A737-375F757D0077}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="55">
   <si>
     <t>Practica</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Proyecto 3d</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -566,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3506F5F8-495D-4CB0-B1D5-67BFABF7FF4F}">
   <dimension ref="B2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +769,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -780,7 +783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>21</v>
       </c>
@@ -794,7 +797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -808,7 +811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -822,7 +825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -836,7 +839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -850,7 +853,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>26</v>
       </c>
@@ -864,7 +867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>27</v>
       </c>
@@ -878,7 +881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -892,7 +895,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -906,7 +909,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -920,7 +923,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>31</v>
       </c>
@@ -934,7 +937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>32</v>
       </c>
@@ -948,7 +951,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -962,7 +965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>34</v>
       </c>
@@ -976,7 +979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>35</v>
       </c>
@@ -990,7 +993,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>36</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>37</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>38</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>52</v>
       </c>
@@ -1044,6 +1047,9 @@
       <c r="C39" t="s">
         <v>49</v>
       </c>
+      <c r="E39" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
@@ -1052,6 +1058,9 @@
       <c r="C40" t="s">
         <v>49</v>
       </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
@@ -1060,6 +1069,9 @@
       <c r="C41" t="s">
         <v>49</v>
       </c>
+      <c r="E41" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
@@ -1068,6 +1080,9 @@
       <c r="C42" t="s">
         <v>49</v>
       </c>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
@@ -1076,6 +1091,9 @@
       <c r="C43" t="s">
         <v>49</v>
       </c>
+      <c r="E43" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -1084,6 +1102,9 @@
       <c r="C44" t="s">
         <v>49</v>
       </c>
+      <c r="E44" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -1100,6 +1121,9 @@
       <c r="C46" t="s">
         <v>49</v>
       </c>
+      <c r="E46" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -1107,6 +1131,9 @@
       </c>
       <c r="C47" t="s">
         <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
